--- a/protected/commands/template/month_more_ones.xlsx
+++ b/protected/commands/template/month_more_ones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="12" r:id="rId1"/>
@@ -32,6 +32,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SAMSUNG:
+不含保证薪金的同事</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A24" authorId="0">
       <text>
         <r>
@@ -44,7 +57,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这个是在20号的财务报表里面取得的</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+税前工资+公司部份社保+公司部份工积金 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +108,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="B51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SAMSUNG:
+只计算IA合同数量</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SAMSUNG:
+新地区销售人少也要划分区域，以市场适合划分多少区域为准</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,293 +152,519 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="196">
-  <si>
-    <t>Regional performance standard monthly report summary</t>
-  </si>
-  <si>
-    <t>Managing projects</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>Total Revenue (Last Month)</t>
-  </si>
-  <si>
-    <t>Total Revenue (Current Month)</t>
-  </si>
-  <si>
-    <t>IA Total Revenue (Current Month)</t>
-  </si>
-  <si>
-    <t>IB Total Revenue (Current Month)</t>
-  </si>
-  <si>
-    <t>Last Month New（IA，IB）Annual Services Revenue</t>
-  </si>
-  <si>
-    <t>Current Month New（IA，IB）Annual Services Revenue</t>
-  </si>
-  <si>
-    <t>Last Year "Current Month" New（IA，IB）Total Services Revenue</t>
-  </si>
-  <si>
-    <t>Last Month New client yearly Revenue</t>
-  </si>
-  <si>
-    <t>Current Month New client yearly Revenue</t>
-  </si>
-  <si>
-    <t>Total Revenue IC+Scent+VOC+Kitchen or other Yearly Revenue</t>
-  </si>
-  <si>
-    <t>Last Year "Current Month" client yearly Revenue</t>
-  </si>
-  <si>
-    <t>Last Year "Current Month" IC+Scent+VOC+Kitchen or other Yearly Revenue</t>
-  </si>
-  <si>
-    <t>Current Month F&amp;B Services Revenue</t>
-  </si>
-  <si>
-    <t>Current Month Non-F&amp;B Services Revenue</t>
-  </si>
-  <si>
-    <t>Last Month Revenue Net Growth （Yearly Revenue）</t>
-  </si>
-  <si>
-    <t>New Services Annual Revenue+Amend Services Annual Revenue -Terminate Services Annual Revenue</t>
-  </si>
-  <si>
-    <t>Current Month Revenue Net Growth  （Yearly Revenue）</t>
-  </si>
-  <si>
-    <t>Last Year "Current Month" Revenue Net Growth  （Yearly Revenue）</t>
-  </si>
-  <si>
-    <t>Current Month Service Amount</t>
-  </si>
-  <si>
-    <t>Current Month Service Cancellation Amount</t>
-  </si>
-  <si>
-    <t>Current Month Service Technicain Avg. Service Revenue</t>
-  </si>
-  <si>
-    <t>Current Month Service Technicain Highest Service Revenue</t>
-  </si>
-  <si>
-    <t>Bad Debt Customers（AR List over 90 Days）Total Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In the Accounts Receivable Statement </t>
-  </si>
-  <si>
-    <t>Current Month AR Amount</t>
-  </si>
-  <si>
-    <t>IA+IB Cost</t>
-  </si>
-  <si>
-    <t>Current Month AP Amount</t>
-  </si>
-  <si>
-    <t>IA+IBCost</t>
-  </si>
-  <si>
-    <t>Current Month Service Technicain Charge Out Amount（IA）</t>
-  </si>
-  <si>
-    <t>IACost</t>
-  </si>
-  <si>
-    <t>Current Month Service Technicain Charge Out Amount（IB）</t>
-  </si>
-  <si>
-    <t>IBCost</t>
-  </si>
-  <si>
-    <t>Current Month Service Technicain Total Salaries</t>
-  </si>
-  <si>
-    <t>In the total salary of financial statements</t>
-  </si>
-  <si>
-    <t>Current Month all staff Total Salaries</t>
-  </si>
-  <si>
-    <t>Current Month Amount in the Daily Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Last month company month end closing balance</t>
-  </si>
-  <si>
-    <t>Last month（IA，IB）new contract amount</t>
-  </si>
-  <si>
-    <t>Current month（IA，IB）new contract amount</t>
-  </si>
-  <si>
-    <t>Current month（IA）new contract amount</t>
-  </si>
-  <si>
-    <t>Current month（IA Installation）new contract amount</t>
-  </si>
-  <si>
-    <t>Last Year "Current month"（IA，IB）new contract amount</t>
-  </si>
-  <si>
-    <t>Current month Skill Banner Amount</t>
-  </si>
-  <si>
-    <t>No. of Technicains receiving Badges</t>
-  </si>
-  <si>
-    <t>Badge Issue Amount</t>
-  </si>
-  <si>
-    <t>Last Month complaint cases</t>
-  </si>
-  <si>
-    <t>Current Month complaint cases</t>
-  </si>
-  <si>
-    <t>Current Month complaint solve cases</t>
-  </si>
-  <si>
-    <t>Complaint solve (Within 2 days) cases</t>
-  </si>
-  <si>
-    <t>Follow up with in 7 days after customer complaints cases</t>
-  </si>
-  <si>
-    <t>Team/Group leaders meeting with Technicains cases</t>
-  </si>
-  <si>
-    <t>Team / Group leader complaints follow up cases</t>
-  </si>
-  <si>
-    <t>No. of Current Month QC customers</t>
-  </si>
-  <si>
-    <t>No. of Below 70 QC mark customers</t>
-  </si>
-  <si>
-    <t>QC Highest Avg. score Technicain</t>
-  </si>
-  <si>
-    <t>Successfully installed machine contracts within 5 days amount</t>
-  </si>
-  <si>
-    <t>First Service within 7 days after signing the contract amount</t>
-  </si>
-  <si>
-    <t>No. of Vehicle</t>
-  </si>
-  <si>
-    <t>Current Month Avg. Vehicle fuel amount</t>
-  </si>
-  <si>
-    <t>Current Month Soap delivery "Project"（Barrel）</t>
-  </si>
-  <si>
-    <t>Current Month Soap delivery "Real"（Barrel）</t>
-  </si>
-  <si>
-    <t>Current month paper product "Project" （CTN）</t>
-  </si>
-  <si>
-    <t>Current month paper product "Real" （CTN）</t>
-  </si>
-  <si>
-    <t>Last Month Stock take accuracy
-（Real stock level / System stock level）</t>
-  </si>
-  <si>
-    <t>Uncontracted Staff amount "Exceed 1 Month"</t>
-  </si>
-  <si>
-    <t>Current Month Sales Person turn over amount（Working for over 1 month)</t>
-  </si>
-  <si>
-    <t>Current Month Service Technicain turn over amount（Working for over 1 month)</t>
-  </si>
-  <si>
-    <t>Current Month Office staff turn over amount（Working for over 1 month)</t>
-  </si>
-  <si>
-    <t>Total Service Technicain Amount</t>
-  </si>
-  <si>
-    <t>Current Team leader amount</t>
-  </si>
-  <si>
-    <t>Current Group leader amount</t>
-  </si>
-  <si>
-    <t>Current Month Sales staff amount</t>
-  </si>
-  <si>
-    <t>Current Month Office staff amount</t>
-  </si>
-  <si>
-    <t>Sales Region Amount</t>
-  </si>
-  <si>
-    <t>Sales Region Amount (Public)</t>
-  </si>
-  <si>
-    <t>total score</t>
-  </si>
-  <si>
-    <t>Sales Dept</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Revenue Status </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
         <color rgb="FF000000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">New（IA，IB）New Services Annual Revenue Growth </t>
+      <t>地区表现标准月报表</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="28"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇总</t>
+    </r>
+  </si>
+  <si>
+    <t>管理项目</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>上月生意额</t>
+  </si>
+  <si>
+    <t>今月生意额</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+      <t>今月IA生意</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>(Current Month-Last Month)/Last Month</t>
+      <t>今月IB生意</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
+      <t>上月新（IA，IB）服</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务年</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生意</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今月新（IA，IB）服</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务年</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生意</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去年今月新（IA，IB）服</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>务年</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生意</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额</t>
+    </r>
+  </si>
+  <si>
+    <t>上月新业务年生意额</t>
+  </si>
+  <si>
+    <t>今月新业务年生意额</t>
+  </si>
+  <si>
+    <t>今月IC+飘盈香+甲醛+厨房其他年生意额</t>
+  </si>
+  <si>
+    <t>去年今月新业务年生意额</t>
+  </si>
+  <si>
+    <t>去年今月IC+飘盈香+甲醛+厨房其他年生意额</t>
+  </si>
+  <si>
+    <t>今月餐饮年生意额</t>
+  </si>
+  <si>
+    <t>今月非餐饮年生意额</t>
+  </si>
+  <si>
+    <t>上月生意净增长 （年生意额）</t>
+  </si>
+  <si>
+    <t>新增服务年金额+更改服务年差额-終止服务年金额</t>
+  </si>
+  <si>
+    <t>今月生意净增长 （年生意额）</t>
+  </si>
+  <si>
+    <t>去年今月生意额净增长 （年生意额）</t>
+  </si>
+  <si>
+    <t>今月服务金额</t>
+  </si>
+  <si>
+    <t>今月停单月生意额</t>
+  </si>
+  <si>
+    <t>技术员当月平均生意额</t>
+  </si>
+  <si>
+    <t>当月最高技术员生意金额</t>
+  </si>
+  <si>
+    <t>问题客户（应收报表超过90天）总金额</t>
+  </si>
+  <si>
+    <t>在应收帐报表里面</t>
+  </si>
+  <si>
+    <t>今月收款额</t>
+  </si>
+  <si>
+    <t>今月材料订购金额</t>
+  </si>
+  <si>
+    <t>IA+IB成本</t>
+  </si>
+  <si>
+    <t>技术员今月领货金额（IA）</t>
+  </si>
+  <si>
+    <t>IA成本</t>
+  </si>
+  <si>
+    <t>技术员今月领货金额（IB）</t>
+  </si>
+  <si>
+    <t>IB成本</t>
+  </si>
+  <si>
+    <t>今月技术员总工资</t>
+  </si>
+  <si>
+    <t>财务报表技术员总工资里面</t>
+  </si>
+  <si>
+    <t>今月工资总金额</t>
+  </si>
+  <si>
+    <t>财务报表总工资里面</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>上月底公司累计结余</t>
+  </si>
+  <si>
+    <t>上月新（IA，IB）服务合同数目</t>
+  </si>
+  <si>
+    <t>今月新（IA，IB）服务合同数目</t>
+  </si>
+  <si>
+    <t>今月新IA服务合同数目</t>
+  </si>
+  <si>
+    <t>今月新IA需安装服务合同数目</t>
+  </si>
+  <si>
+    <t>去年今月新（IA，IB）服务合同数目</t>
+  </si>
+  <si>
+    <t>锦旗今月数目</t>
+  </si>
+  <si>
+    <t>襟章获颁技术员数目</t>
+  </si>
+  <si>
+    <t>襟章发放数目</t>
+  </si>
+  <si>
+    <t>上月客诉数目</t>
+  </si>
+  <si>
+    <t>今月客诉数目</t>
+  </si>
+  <si>
+    <t>当月解决客诉数目</t>
+  </si>
+  <si>
+    <t>日报表里面当月的数目</t>
+  </si>
+  <si>
+    <t>2天内解决客诉数目</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后7天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内电话</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目</t>
+    </r>
+  </si>
+  <si>
+    <t>队长/组长跟客诉技术员面谈数目</t>
+  </si>
+  <si>
+    <t>问题客户需要队长/组长跟进数目</t>
+  </si>
+  <si>
+    <t>今月质检客户数量</t>
+  </si>
+  <si>
+    <t>低于70分质检客户数量</t>
+  </si>
+  <si>
+    <t>质检拜访平均分数最高同事</t>
+  </si>
+  <si>
+    <t>5天成功安装机器合同数目</t>
+  </si>
+  <si>
+    <t>7天成功安排首次合同数目</t>
+  </si>
+  <si>
+    <t>车辆数目</t>
+  </si>
+  <si>
+    <t>今月平均每部车用油金额</t>
+  </si>
+  <si>
+    <t>今月应送皂液（桶）</t>
+  </si>
+  <si>
+    <t>今月实际送皂液（桶）</t>
+  </si>
+  <si>
+    <t>今月应送纸品（箱）</t>
+  </si>
+  <si>
+    <t>今月实际送纸品（箱）</t>
+  </si>
+  <si>
+    <t>上月盘点准确度
+（实际货品量/储存电脑数量）%</t>
+  </si>
+  <si>
+    <t>超过一个月没有签署劳动合同同事数目（张）</t>
+  </si>
+  <si>
+    <t>今月销售离职人数（工作满一个月）数目</t>
+  </si>
+  <si>
+    <t>今月技术员离职人数（工作满一个月）数目</t>
+  </si>
+  <si>
+    <t>今月办公室离职人数（工作满一个月）数目</t>
+  </si>
+  <si>
+    <t>技术员今月整体人员数目</t>
+  </si>
+  <si>
+    <t>现有队长数目</t>
+  </si>
+  <si>
+    <t>现有组长数目</t>
+  </si>
+  <si>
+    <t>今月销售人员数目</t>
+  </si>
+  <si>
+    <t>今月办公室人员数目</t>
+  </si>
+  <si>
+    <t>销售划分区域</t>
+  </si>
+  <si>
+    <t>销售公共区域</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>销售部</t>
+  </si>
+  <si>
+    <t>新生意情况</t>
+  </si>
+  <si>
+    <t>新(IA,IB)新服务年生意额增长 （(当月-上月)/上月)</t>
   </si>
   <si>
     <t>2(5)</t>
@@ -387,50 +677,13 @@
 &gt; 20% :  5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">New（IA，IB) Services Annual Revenue Year on year Growth                                                               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(Current Month-Last Year "Current Month" )/Last Year "Current Month" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>新(IA,IB)服务年生意额同比增长 （(当月-去年当月）/去年当月)</t>
   </si>
   <si>
     <t>20%(3)</t>
   </si>
   <si>
-    <t>New（IA，IB） Contract Amount Growth（(Current Month-Last Month)/Last Month）</t>
+    <t>新增(IA,IB)生意合同数目增长（(当月-上月)/上月)</t>
   </si>
   <si>
     <t>-40% - -20%     :  1
@@ -440,84 +693,11 @@
 &gt; 40% :  5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">New（IA，IB） Contract Amount Year on year Growth                                                                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">(Current Month-Last Year "Current Month" )/Last Year "Current Month" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">New Client Yearly Revenue Year on year Growth(Scent，VOC，Kitchen or other)                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(Current Month-Last Year "Current Month" )/Last Year "Current Month"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
+    <t>新(IA,IB)生意合同数目同比增长（(当月-去年当月)/去年当月)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新业务(飘盈香，甲醛，厨房或其他)新年生意金额增长（(当月-上月)/上月)
+</t>
   </si>
   <si>
     <t>-200% - -100%     :  1
@@ -527,61 +707,43 @@
 &gt; 300% :  5</t>
   </si>
   <si>
-    <t>New business (piaoyingxiang, formaldehyde, kitchen or other) new year's business amount increased year on year ((current month - last month) / last month)</t>
-  </si>
-  <si>
-    <t>Revenue Net Growth Ratio （Yearly Revenue） （(Current Month-Last Month)/Last Month）</t>
+    <t xml:space="preserve">新兴业务(飘盈香，甲醛，厨房或其他)新年生意金额同比增长 （(当月-去年当月)/去年当月)
+</t>
+  </si>
+  <si>
+    <t>公司年生意额净增长比例（（当月-上月）/上月）</t>
+  </si>
+  <si>
+    <t>公司年生意额净增长同比比例（（当月-去年当月）/去年当月）</t>
+  </si>
+  <si>
+    <t>生意结构比例</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Revenue Net Year on year Growth Ratio（Yearly Revenue）                                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>餐饮非餐饮</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(Current Month-Last Year "Current Month" )/Last Year "Current Month"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <t>Business Structure Ratio</t>
-  </si>
-  <si>
-    <t>Catering And Non-Catering Services Revenue Ratio                                                                                              20% - 40%         （Between 2：8 And 3：7）
-40% - 70%         （Between 3：7 And 4：6）
-70% - 100%       （Between 4：6 And  5：5）
-100% - 150%     （Between 5：5  And  6：4）
-150% - 230%     （Between 6 ： 4 And  7：3）
-&gt;230%               （Above 7：3）</t>
+      <t>新生意年生意额比例
+20% - 40%           （2：8和3：7之间）
+40% - 70%         （3：7和4：6之间）
+70% - 100%       （4：6和 5：5之间）
+100% - 150%    （5：5 和 6：4之间）
+150% - 230%    （6 ： 4 和 7：3之间）
+&gt;230%                 （7：3以上）</t>
+    </r>
   </si>
   <si>
     <t>20% - 40%     :  1
@@ -592,15 +754,19 @@
 &gt; 230% :  1</t>
   </si>
   <si>
-    <t>Current Month IA，IB Annual Services Revenue Ratio 
-20% - 40%         （Between 2：8 And 3：7）                                                                                                        40% - 70%         （Between 3：7 And 4：6）                                                                                             70% - 100%       （Between 4：6 And  5：5）                                                                                               100% - 150%     （Between 5：5  And  6：4）                                                                                                         150% - 230%     （Between 6 ： 4 And  7：3）
-&gt;230%               （Above 7：3）</t>
-  </si>
-  <si>
-    <t>Cancellation  Situation</t>
-  </si>
-  <si>
-    <t>Ratio of Cancellation Amount to Revenue%（Current Month Service Cancellation Amount / Total Revenue (Current Month)）</t>
+    <t>当月IA, IB年生意额比例
+20% - 40%           （2：8和3：7之间）
+40% - 70%         （3：7和4：6之间）
+70% - 100%       （4：6和 5：5之间）
+100% - 150%    （5：5 和 6：4之间）
+150% - 230%    （6 ： 4 和 7：3之间）
+&gt;230%                 （7：3以上）</t>
+  </si>
+  <si>
+    <t>停单情况</t>
+  </si>
+  <si>
+    <t>停单金额占生意比例% （当月停单总月金额/当月生意额）</t>
   </si>
   <si>
     <t>0% - 0.8% : 5
@@ -610,39 +776,13 @@
 X &gt; 3.2% : 1</t>
   </si>
   <si>
-    <t>Field Department</t>
-  </si>
-  <si>
-    <t>Technician productivity</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Last Month Service Technicain Highest Service Revenue Exceed the standard revenue ratio（Standard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30000/Month，Service Technicain Avg. Service Revenue - Standard Revenue / Standard Revenue），Technician below supervisor/director level</t>
-    </r>
+    <t>外勤部</t>
+  </si>
+  <si>
+    <t>技术员生产力</t>
+  </si>
+  <si>
+    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
   </si>
   <si>
     <t>&gt;20% : 5
@@ -653,7 +793,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>Last Month Service Technicain Highest Service Revenue Compare with standard（Standard：30000/Month）</t>
+    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
   </si>
   <si>
     <t>35%(4)</t>
@@ -664,53 +804,32 @@
 10% - 30% ： 3</t>
   </si>
   <si>
-    <t>Last Month Service Technicain Highest Service Revenue</t>
-  </si>
-  <si>
-    <t>For reference only, no score will be calculated</t>
-  </si>
-  <si>
-    <t>Technician cost</t>
+    <t>上月技术员最高生意额技术员金额</t>
+  </si>
+  <si>
+    <t>仅供参考，不计算分数</t>
+  </si>
+  <si>
+    <t>技术员成本</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Material ratio byTechnicain IA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>技术员用料比例 清洁（技术员</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Service Technicain Charge Out Amount（IA） /  IA Total Revenue (Current Month)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
+      <t>IA领货金额/当月IA生意额）</t>
     </r>
   </si>
   <si>
@@ -725,45 +844,7 @@
 &gt;30% : 0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Material ratio byTechnicain 
-IB </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Service Technicain Charge Out Amount（IB）/ IB Total Revenue (Current Month)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>技术员用料比例 灭虫（技术员IB领货金额/当月IB生意额）</t>
   </si>
   <si>
     <t>15%(2)</t>
@@ -777,28 +858,10 @@
 &gt;25% : 0</t>
   </si>
   <si>
-    <t>Awards</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ratio of Current month Appreciation Amount To Total Service Technicain Amount </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(Skill Banner Amount / Total Service Technicain Amount)</t>
-    </r>
+    <t>获奖情况</t>
+  </si>
+  <si>
+    <t>当月锦旗获奖数目占整体技术员比例 （锦旗数目/整体技术员数目）</t>
   </si>
   <si>
     <t>12%(3)</t>
@@ -810,16 +873,16 @@
 &lt;=0% : 0</t>
   </si>
   <si>
-    <t>Current month Badge Issue Details （P:N) P is the number of technicians awarded，N is Badge Issue Amount</t>
-  </si>
-  <si>
-    <t>Account department</t>
-  </si>
-  <si>
-    <t>Financial situation</t>
-  </si>
-  <si>
-    <t>IA,IB Gross margin（Current Month New（IA，IB）Annual Services Revenue - Current Month AP Amount - Current Month Service Technicain Total Salaries）/ Current Month New（IA，IB）Annual Services Revenue</t>
+    <t>当月襟章颁发明细 （P:N) P为受颁技术员数目，N为襟章发放数目</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>财政状况</t>
+  </si>
+  <si>
+    <t>IA,IB毛利率 （当月IA,IB生意额 - 材料订购 - 技术员工资）/当月IA,IB生意额</t>
   </si>
   <si>
     <t>35%(1)</t>
@@ -833,7 +896,7 @@
 &lt;35% : 0</t>
   </si>
   <si>
-    <t>Salary V.S Sales Rate</t>
+    <t>工资占生意额比例</t>
   </si>
   <si>
     <t>28%(3)</t>
@@ -847,10 +910,10 @@
 </t>
   </si>
   <si>
-    <t>Collection status</t>
-  </si>
-  <si>
-    <t>Collection rate（Current Month AR Amount / Total Revenue (Last Month)）</t>
+    <t>收款情况</t>
+  </si>
+  <si>
+    <t>收款效率（当月收款额/上月生意额）</t>
   </si>
   <si>
     <t>92%(3)</t>
@@ -863,13 +926,14 @@
 80% - 85% : 1</t>
   </si>
   <si>
-    <t>company month end closing balance ( Until the last day of each month)</t>
-  </si>
-  <si>
-    <t>Accounts receivable and uncollected</t>
-  </si>
-  <si>
-    <t>Bad Debt Customers Ratio（AR List over 90 Days）Total Amount （Bad Debt CustomersTotal Amount / Total Revenue (Current Month)）</t>
+    <t>公司累积结余（到每月最后一天止）</t>
+  </si>
+  <si>
+    <t>应收未收帐情况</t>
+  </si>
+  <si>
+    <t>问题客人（超过90天没有结款）比例
+(问题客户总月费金额/当月生意额）</t>
   </si>
   <si>
     <t>50%(3)</t>
@@ -882,13 +946,13 @@
 60% - 70% : 1</t>
   </si>
   <si>
-    <t>Operations Department</t>
-  </si>
-  <si>
-    <t>Overall situation</t>
-  </si>
-  <si>
-    <t>Rate of First Service within 7 days after signing the new contract （First Service within 7 days after signing the contract amount / Current month（IA，IB）new contract amount）</t>
+    <t>营运部</t>
+  </si>
+  <si>
+    <t>整体情况</t>
+  </si>
+  <si>
+    <t>新合同7天内安排首次比例 （成功7天首次客户数目/整体当月新IA,IB合同数目）</t>
   </si>
   <si>
     <t>88%(3)</t>
@@ -902,28 +966,30 @@
 &lt;75% : 0</t>
   </si>
   <si>
-    <t>Logistics situation</t>
-  </si>
-  <si>
-    <t>Accuracy of soap delivery（Soap delivery "Real" / Soap delivery "Project"）</t>
+    <t>物流情况</t>
+  </si>
+  <si>
+    <t>运送皂液准确度 （实际送皂液/应送皂液）</t>
   </si>
   <si>
     <t>99%(5)</t>
   </si>
   <si>
-    <t>Accuracy of Selling goods delivery（Selling goods delivery "Real" / Selling goods delivery "Project"）</t>
+    <t>运送销售货品准确度 （实际送销售货品/应送销售货品）</t>
   </si>
   <si>
     <t>85%(3)</t>
   </si>
   <si>
-    <t>Average car spending （C:M)  C : No. of Vehicle，M：Current Month Avg. Vehicle fuel amount</t>
-  </si>
-  <si>
-    <t>Warehouse situation</t>
-  </si>
-  <si>
-    <t>Current Month Stock take accuracy</t>
+    <t>汽车支出平均 （C:M)
+ C : 车辆数目，M：车的平均用油量</t>
+  </si>
+  <si>
+    <t>仓库情况</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每月盘点准确度
+</t>
   </si>
   <si>
     <t>96%(5)</t>
@@ -937,7 +1003,87 @@
 88% - 92% ： 1</t>
   </si>
   <si>
-    <t>Successfully installed machine contracts within 5 days Ratio（Successfully installed machine contracts within 5 days amount / Current month（IA Installation）new contract amount）</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新合同5天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安排安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比例 （成功5天安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目/今月新IA需安装服务合同数目）</t>
+    </r>
   </si>
   <si>
     <t>80%(2)</t>
@@ -951,10 +1097,11 @@
 &lt;= 75% : 0</t>
   </si>
   <si>
-    <t>Quality inspection</t>
-  </si>
-  <si>
-    <t>No. of Current Month QC customers Ratio（Compared with the standard monthly customer visits）（It is estimated that each customer RM1500 / month，Local service customer amount / Customer value valuation= Approximate number of customers，Approximate Number of customers divided by 6（Hope Visit customers every 12 months），Equal standard monthly customer visits  amount）</t>
+    <t>质检情况</t>
+  </si>
+  <si>
+    <t>当月质检客户数量效率 （跟标准每月客户拜访数目比较）
+（估计客户每个约￥1500/月，当地服务客户金额/客户金额估值=客户约数量，客户约数量除6（希望每12个月拜访客户一次），等于标准每月客户拜访数目）</t>
   </si>
   <si>
     <t>33%(2)</t>
@@ -968,8 +1115,8 @@
 &lt;= 10% : 0</t>
   </si>
   <si>
-    <t>Quality issue customer Ratio
-（Quality issue customer ： No. of Below 70 QC mark customers。Quality issue customer / No. of Current Month QC customers =Quality issue customer Ratio）</t>
+    <t>质检问题客户数量比例 
+（问题客户 ： 质检拜访客户分数低于70分。问题客户/当月质检拜访客户 = 质检问题客户数量比例）</t>
   </si>
   <si>
     <t>12%(5)</t>
@@ -980,16 +1127,16 @@
 0% - 10% : 1</t>
   </si>
   <si>
-    <t>Satisfied performance technician（QC Highest Avg. score Technicain）</t>
+    <t>表现满意技术员 (质检拜访表平均分数最高同事）</t>
   </si>
   <si>
     <t>刘秀航</t>
   </si>
   <si>
-    <t>Customer complaint handling</t>
-  </si>
-  <si>
-    <t>Compare Current Month complaint cases（Current Month complaint cases - Last Month complaint cases / Last Month complaint cases）</t>
+    <t>客诉处理</t>
+  </si>
+  <si>
+    <t>当月客诉数目比较（当月客诉数目 - 上月客诉数目 / 上月客诉数目）</t>
   </si>
   <si>
     <t>4%（1）</t>
@@ -1003,15 +1150,15 @@
 &gt;5% : 0</t>
   </si>
   <si>
-    <t>Customer complaint resolution efficiency（Efficient complaint cases = Complaint solve (Within 2 days) cases）
-（Customer complaint resolution efficiency = Efficient complaint cases / Current Month complaint cases）</t>
+    <t>客诉解决效率（高效客诉数目 = 2工作天内处理完成客诉数量）
+（客诉解决效率 = 高效客诉解决数目/当月客诉数目）</t>
   </si>
   <si>
     <t>54%(0)</t>
   </si>
   <si>
-    <t>Team leaders meeting with Technicains cases ratio
-（Team/Group leaders meeting with Technicains cases / Current Month complaint cases）</t>
+    <t>队长跟投诉技术员面谈比例 
+（队长/组长面谈客诉技术员数目/客诉数目）</t>
   </si>
   <si>
     <t>15% - 20% ： 5
@@ -1020,14 +1167,184 @@
 &lt;5% : 0</t>
   </si>
   <si>
-    <t>Efficient Return visit ratio（Efficient Return visi = Follow up with in 7 days after customer complaints cases）
-（Efficient Return visit ratio = Efficient Return visi / Current Month complaint cases）</t>
-  </si>
-  <si>
-    <t>Personnel Dept</t>
-  </si>
-  <si>
-    <t>All colleagues Labor contract progress（Uncontracted Staff amount "Exceed 1 Month"）</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>率 （高效回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = 客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后7天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目）
+（高效回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>率=高效回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今月客诉数目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>人事部</t>
+  </si>
+  <si>
+    <t>所有同事劳动合同进展 (超过一个月没有签署劳动合同同事数目（张））</t>
   </si>
   <si>
     <t>2（4）</t>
@@ -1039,10 +1356,10 @@
 &gt;5 : 0</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sales staff situation</t>
-  </si>
-  <si>
-    <t>Sales turnover rate （Working for over 1 month）（Sales Person turn over amount / Current Month Sales staff amount）</t>
+    <t>销售人员情况</t>
+  </si>
+  <si>
+    <t>销售人员流失率 （工作满一个月的）（离职销售人员/当月所有销售人员）</t>
   </si>
   <si>
     <t>0% - 10% : 5
@@ -1051,7 +1368,7 @@
 &gt;30% : 0</t>
   </si>
   <si>
-    <t>Sales area vacancy rate（Sales Region Amount (Public) / Sales Region Amount）</t>
+    <t>销售区域空置率（公共区域/销售划分区域）</t>
   </si>
   <si>
     <t>30%（3）</t>
@@ -1062,10 +1379,10 @@
 60%  - 100% :  1</t>
   </si>
   <si>
-    <t>Field staff situation</t>
-  </si>
-  <si>
-    <t>Technicain  turnover rate（Working for over 1 month）% （Current Month Service Technicain turn over amount / Total Service Technicain Amount）</t>
+    <t>外勤人员情况</t>
+  </si>
+  <si>
+    <t>离职技术员（工作满一个月的）人数% （当月离职技术人员/整体外勤技术人员）</t>
   </si>
   <si>
     <t>8%（3）</t>
@@ -1077,8 +1394,8 @@
 &gt;15% : 0</t>
   </si>
   <si>
-    <t>Team leader amount of Standard（Up to every 5 technicians，There must be a Team leader ) 
-(Technicain amount / 6=Standard Team leader amoun， Scale = Current Team leader amount / Standard Team leader amount）</t>
+    <t>队长数目跟标准比例 （最多每5个技术员，就要有一个队长的设置) 
+(技术员数目/6=标准队长数目， 比例 = 队长数目/标准队长数目）</t>
   </si>
   <si>
     <t>&gt;100% : 5
@@ -1086,17 +1403,17 @@
 &lt;= 80% : 1</t>
   </si>
   <si>
-    <t>Group leader amount of Standard（Up to every 30 technicians，There must be a Group leader) 
-(Technicain amount / 30 =Standard  Group leader amoun，Scale = Current Group leader amount /Standard amount）</t>
-  </si>
-  <si>
-    <t>Number of new technicians</t>
-  </si>
-  <si>
-    <t>Office staff situation</t>
-  </si>
-  <si>
-    <t>Office staff turn over amount（Working for over 1 month)%（Current Month Office staff turn over amount / Total Office staff amount）</t>
+    <t>组长数目跟标准比例 （最多每30个技术员，就要有一个组长的设置) 
+(技术员数目/30=标准组长数目， 比例 = 组长数目/标准数目）</t>
+  </si>
+  <si>
+    <t>新招技术员人数</t>
+  </si>
+  <si>
+    <t>办公室人员情况</t>
+  </si>
+  <si>
+    <t>离职办公室（工作满一个月的）人数% （当月离职办公室人员/整体办公室人员）</t>
   </si>
 </sst>
 </file>
@@ -1104,14 +1421,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1154,26 +1471,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="12"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="12"/>
       <name val="新細明體"/>
       <charset val="134"/>
@@ -1187,27 +1489,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <charset val="134"/>
     </font>
@@ -1219,16 +1501,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1248,21 +1537,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1277,24 +1551,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1302,12 +1566,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1320,17 +1578,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1346,6 +1603,45 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1367,13 +1663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,44 +1672,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
+      <sz val="28"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,19 +1712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,19 +1724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,7 +1754,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,85 +1910,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,127 +1964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,7 +2011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1815,34 +2062,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1853,60 +2072,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1926,11 +2091,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,16 +2145,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1976,31 +2176,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2033,236 +2213,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2284,7 +2464,7 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1">
@@ -2308,67 +2488,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2377,193 +2548,166 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="10" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="10" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,7 +2716,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2581,13 +2725,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2598,10 +2742,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -2633,26 +2777,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3027,14 +3171,14 @@
   <sheetPr/>
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.7583333333333" style="6" customWidth="1"/>
     <col min="4" max="4" width="47.5416666666667" style="7" customWidth="1"/>
     <col min="5" max="256" width="9" style="8"/>
@@ -3116,1814 +3260,1813 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="17.25" spans="1:4">
       <c r="A10" s="17"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33.75" spans="1:4">
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A11" s="17"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="33.75" spans="1:4">
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A12" s="17"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="17.25" spans="1:4">
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A13" s="17"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="17.25" spans="1:4">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A14" s="17"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="50.25" spans="1:4">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A15" s="17"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="50.25" spans="1:4">
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A16" s="17"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="50.25" spans="1:4">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A17" s="17"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="17.25" spans="1:4">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A18" s="17"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="17.25" spans="1:4">
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A19" s="17"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="17.25" spans="1:4">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A20" s="17"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="17.25" spans="1:4">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A21" s="17"/>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="17.25" spans="1:4">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A22" s="17"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="17.25" spans="1:4">
+    <row r="23" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A23" s="17"/>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="17.25" spans="1:4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23" t="s">
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="17.25" spans="1:4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="21" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23" t="s">
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="17.25" spans="1:4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23" t="s">
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="17.25" spans="1:4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:7">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="17.25" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23" t="s">
+      <c r="G28" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A29" s="17"/>
-      <c r="B29" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A30" s="17"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A31" s="17"/>
       <c r="B31" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A32" s="17"/>
       <c r="B32" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A33" s="17"/>
       <c r="B33" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A34" s="17"/>
       <c r="B34" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A35" s="17"/>
       <c r="B35" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A37" s="17"/>
       <c r="B37" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A38" s="17"/>
       <c r="B38" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A39" s="17"/>
       <c r="B39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A41" s="17"/>
       <c r="B41" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A43" s="17"/>
       <c r="B43" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="21"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A44" s="17"/>
       <c r="B44" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A45" s="17"/>
       <c r="B45" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A46" s="17"/>
       <c r="B46" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A47" s="17"/>
       <c r="B47" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A48" s="17"/>
       <c r="B48" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A49" s="17"/>
       <c r="B49" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A50" s="17"/>
       <c r="B50" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A51" s="17"/>
       <c r="B51" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A52" s="17"/>
       <c r="B52" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A53" s="17"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="21"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A54" s="17"/>
       <c r="B54" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A55" s="17"/>
       <c r="B55" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A56" s="17"/>
       <c r="B56" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A57" s="17"/>
       <c r="B57" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A58" s="17"/>
       <c r="B58" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A59" s="17"/>
       <c r="B59" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="29.25" spans="1:4">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26" t="s">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="21"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A62" s="17"/>
       <c r="B62" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A63" s="17"/>
       <c r="B63" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A64" s="17"/>
       <c r="B64" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A65" s="17"/>
       <c r="B65" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A66" s="17"/>
       <c r="B66" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A67" s="17"/>
       <c r="B67" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A68" s="17"/>
       <c r="B68" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A69" s="17"/>
       <c r="B69" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A70" s="17"/>
       <c r="B70" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A71" s="17"/>
       <c r="B71" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="15" spans="1:4">
       <c r="A72" s="17"/>
       <c r="B72" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="73" ht="21.75" spans="1:4">
-      <c r="A73" s="28"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="31"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
     </row>
     <row r="74" ht="21.75" spans="1:4">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="34">
+      <c r="B74" s="30"/>
+      <c r="C74" s="31">
         <v>53</v>
       </c>
       <c r="D74" s="20"/>
     </row>
     <row r="75" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="34">
+      <c r="B75" s="33"/>
+      <c r="C75" s="31">
         <v>23</v>
       </c>
       <c r="D75" s="20"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="107" t="s">
+      <c r="D76" s="95" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38" t="s">
+      <c r="A77" s="34"/>
+      <c r="B77" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="107" t="s">
+      <c r="D77" s="95" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A78" s="37"/>
-      <c r="B78" s="41" t="s">
+      <c r="A78" s="34"/>
+      <c r="B78" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="108" t="s">
+      <c r="D78" s="96" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A79" s="37"/>
-      <c r="B79" s="43" t="s">
+      <c r="A79" s="34"/>
+      <c r="B79" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="108" t="s">
+      <c r="D79" s="96" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A80" s="37"/>
-      <c r="B80" s="43" t="s">
+      <c r="A80" s="34"/>
+      <c r="B80" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D80" s="108" t="s">
+      <c r="D80" s="96" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A81" s="37"/>
-      <c r="B81" s="44" t="s">
+      <c r="A81" s="34"/>
+      <c r="B81" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="108" t="s">
+      <c r="D81" s="96" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A82" s="37"/>
-      <c r="B82" s="41" t="s">
+      <c r="A82" s="34"/>
+      <c r="B82" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="107" t="s">
+      <c r="D82" s="95" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A83" s="37"/>
-      <c r="B83" s="43" t="s">
+      <c r="A83" s="34"/>
+      <c r="B83" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="107" t="s">
+      <c r="D83" s="95" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" ht="115.5" spans="1:4">
-      <c r="A84" s="45" t="s">
+      <c r="A84" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="39" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" ht="115.5" spans="1:4">
-      <c r="A85" s="45"/>
-      <c r="B85" s="43" t="s">
+      <c r="A85" s="40"/>
+      <c r="B85" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="42" t="s">
+      <c r="D85" s="39" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="39" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="49">
+      <c r="B87" s="44"/>
+      <c r="C87" s="45">
         <v>12</v>
       </c>
-      <c r="D87" s="50"/>
+      <c r="D87" s="46"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A88" s="51" t="s">
+      <c r="A88" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D88" s="50" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="89" s="2" customFormat="1" ht="49.5" spans="1:4">
-      <c r="A89" s="51"/>
-      <c r="B89" s="52" t="s">
+      <c r="A89" s="47"/>
+      <c r="B89" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A90" s="51"/>
-      <c r="B90" s="52" t="s">
+    <row r="90" s="2" customFormat="1" ht="33" spans="1:4">
+      <c r="A90" s="47"/>
+      <c r="B90" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="55" t="str">
+      <c r="C90" s="51" t="str">
         <f>B21</f>
-        <v>Current Month Service Technicain Highest Service Revenue</v>
-      </c>
-      <c r="D90" s="54" t="s">
+        <v>当月最高技术员生意金额</v>
+      </c>
+      <c r="D90" s="50" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A91" s="51" t="s">
+      <c r="A91" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="92" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A92" s="51"/>
-      <c r="B92" s="52" t="s">
+      <c r="A92" s="47"/>
+      <c r="B92" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="53" t="s">
+      <c r="C92" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="50" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="93" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A93" s="51" t="s">
+      <c r="A93" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C93" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="58" t="s">
+      <c r="D93" s="54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" ht="33" spans="1:4">
-      <c r="A94" s="51"/>
-      <c r="B94" s="59" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C94" s="60">
+      <c r="C94" s="55">
         <v>0.216666666666667</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="50" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="95" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A95" s="61" t="s">
+      <c r="A95" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="62"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="64"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="58"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A96" s="65" t="s">
+      <c r="A96" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="66" t="s">
+      <c r="B96" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="67" t="s">
+      <c r="C96" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="68" t="s">
+      <c r="D96" s="62" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A97" s="65"/>
-      <c r="B97" s="69" t="s">
+      <c r="A97" s="59"/>
+      <c r="B97" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D97" s="68" t="s">
+      <c r="D97" s="62" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="98" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="70" t="s">
+      <c r="B98" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="71" t="s">
+      <c r="C98" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D98" s="72" t="s">
+      <c r="D98" s="64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:4">
-      <c r="A99" s="65"/>
-      <c r="B99" s="73" t="s">
+      <c r="A99" s="59"/>
+      <c r="B99" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="71" t="str">
+      <c r="C99" s="63" t="str">
         <f>B29</f>
-        <v>Last month company month end closing balance</v>
-      </c>
-      <c r="D99" s="72" t="s">
+        <v>上月底公司累计结余</v>
+      </c>
+      <c r="D99" s="64" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="82.5" spans="1:4">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="67" t="s">
+      <c r="C100" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D100" s="68" t="s">
+      <c r="D100" s="62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="101" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="74">
+      <c r="B101" s="44"/>
+      <c r="C101" s="66">
         <v>11.73</v>
       </c>
-      <c r="D101" s="75"/>
+      <c r="D101" s="67"/>
     </row>
     <row r="102" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A102" s="76" t="s">
+      <c r="A102" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="B102" s="77" t="s">
+      <c r="B102" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C102" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="D102" s="79" t="s">
+      <c r="D102" s="71" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A103" s="76" t="s">
+      <c r="A103" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="B103" s="77" t="s">
+      <c r="B103" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D103" s="79" t="s">
+      <c r="D103" s="71" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A104" s="76"/>
-      <c r="B104" s="77" t="s">
+      <c r="A104" s="68"/>
+      <c r="B104" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="C104" s="78" t="s">
+      <c r="C104" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D104" s="79" t="s">
+      <c r="D104" s="71" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="105" s="3" customFormat="1" spans="1:4">
-      <c r="A105" s="76"/>
-      <c r="B105" s="80" t="s">
+    <row r="105" s="3" customFormat="1" ht="33" spans="1:4">
+      <c r="A105" s="68"/>
+      <c r="B105" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="C105" s="81">
+      <c r="C105" s="73">
         <v>1.43055555555556</v>
       </c>
-      <c r="D105" s="82" t="s">
+      <c r="D105" s="74" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="B106" s="83" t="s">
+      <c r="B106" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="C106" s="84" t="s">
+      <c r="C106" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="D106" s="82" t="s">
+      <c r="D106" s="74" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1" ht="99" spans="1:4">
-      <c r="A107" s="76"/>
-      <c r="B107" s="83" t="s">
+      <c r="A107" s="68"/>
+      <c r="B107" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="84" t="s">
+      <c r="C107" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="D107" s="79" t="s">
+      <c r="D107" s="71" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A108" s="76" t="s">
+      <c r="A108" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="78" t="s">
+      <c r="C108" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="79" t="s">
+      <c r="D108" s="71" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="109" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A109" s="76"/>
-      <c r="B109" s="77" t="s">
+      <c r="A109" s="68"/>
+      <c r="B109" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="C109" s="78" t="s">
+      <c r="C109" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="D109" s="79" t="s">
+      <c r="D109" s="71" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" spans="1:4">
-      <c r="A110" s="76"/>
-      <c r="B110" s="77" t="s">
+    <row r="110" s="2" customFormat="1" ht="33" spans="1:4">
+      <c r="A110" s="68"/>
+      <c r="B110" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="C110" s="78" t="s">
+      <c r="C110" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="D110" s="79" t="s">
+      <c r="D110" s="71" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A111" s="76" t="s">
+      <c r="A111" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C111" s="78" t="s">
+      <c r="C111" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D111" s="79" t="s">
+      <c r="D111" s="71" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A112" s="76"/>
-      <c r="B112" s="77" t="s">
+      <c r="A112" s="68"/>
+      <c r="B112" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="78" t="s">
+      <c r="C112" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D112" s="79" t="s">
+      <c r="D112" s="71" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A113" s="76"/>
-      <c r="B113" s="85" t="s">
+      <c r="A113" s="68"/>
+      <c r="B113" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="C113" s="81" t="s">
+      <c r="C113" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D113" s="79" t="s">
+      <c r="D113" s="71" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" ht="99" spans="1:4">
-      <c r="A114" s="76"/>
-      <c r="B114" s="77" t="s">
+      <c r="A114" s="68"/>
+      <c r="B114" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="C114" s="78" t="s">
+      <c r="C114" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="D114" s="79" t="s">
+      <c r="D114" s="71" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:4">
-      <c r="A115" s="76"/>
-      <c r="B115" s="86" t="s">
+      <c r="A115" s="68"/>
+      <c r="B115" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C115" s="81">
+      <c r="C115" s="73">
         <v>5</v>
       </c>
-      <c r="D115" s="82" t="s">
+      <c r="D115" s="74" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="B116" s="48"/>
-      <c r="C116" s="74">
+      <c r="B116" s="44"/>
+      <c r="C116" s="66">
         <v>34</v>
       </c>
-      <c r="D116" s="75"/>
+      <c r="D116" s="67"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A117" s="87" t="s">
+      <c r="A117" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="88" t="s">
+      <c r="B117" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="C117" s="89" t="s">
+      <c r="C117" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="D117" s="90" t="s">
+      <c r="D117" s="79" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A118" s="87" t="s">
+      <c r="A118" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B118" s="88" t="s">
+      <c r="B118" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C118" s="91" t="s">
+      <c r="C118" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D118" s="92" t="s">
+      <c r="D118" s="81" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" ht="49.5" spans="1:4">
-      <c r="A119" s="87"/>
-      <c r="B119" s="93" t="s">
+      <c r="A119" s="76"/>
+      <c r="B119" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C119" s="91" t="s">
+      <c r="C119" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="D119" s="90" t="s">
+      <c r="D119" s="79" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A120" s="94" t="s">
+      <c r="A120" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="B120" s="95" t="s">
+      <c r="B120" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="C120" s="96" t="s">
+      <c r="C120" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="D120" s="92" t="s">
+      <c r="D120" s="81" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A121" s="94"/>
-      <c r="B121" s="95" t="s">
+      <c r="A121" s="82"/>
+      <c r="B121" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="C121" s="96" t="s">
+      <c r="C121" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="D121" s="92" t="s">
+      <c r="D121" s="81" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A122" s="94"/>
-      <c r="B122" s="88" t="s">
+      <c r="A122" s="82"/>
+      <c r="B122" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="C122" s="89" t="s">
+      <c r="C122" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="D122" s="92" t="s">
+      <c r="D122" s="81" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A123" s="94"/>
-      <c r="B123" s="97" t="s">
+      <c r="A123" s="82"/>
+      <c r="B123" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="C123" s="89"/>
-      <c r="D123" s="92" t="s">
+      <c r="C123" s="78"/>
+      <c r="D123" s="81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" ht="66" spans="1:4">
-      <c r="A124" s="98" t="s">
+      <c r="A124" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="B124" s="95" t="s">
+      <c r="B124" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="C124" s="99" t="s">
+      <c r="C124" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D124" s="100" t="s">
+      <c r="D124" s="88" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:4">
       <c r="A125" s="4"/>
-      <c r="B125" s="101"/>
-      <c r="C125" s="102"/>
-      <c r="D125" s="103"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="90"/>
+      <c r="D125" s="91"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:4">
       <c r="A126" s="4"/>
-      <c r="B126" s="101"/>
-      <c r="C126" s="102"/>
-      <c r="D126" s="103"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="90"/>
+      <c r="D126" s="91"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:4">
       <c r="A127" s="4"/>
-      <c r="B127" s="101"/>
-      <c r="C127" s="102"/>
-      <c r="D127" s="103"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="91"/>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:4">
       <c r="A128" s="4"/>
-      <c r="B128" s="101"/>
-      <c r="C128" s="102"/>
-      <c r="D128" s="103"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="91"/>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:4">
       <c r="A129" s="4"/>
-      <c r="B129" s="101"/>
-      <c r="C129" s="102"/>
-      <c r="D129" s="103"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="90"/>
+      <c r="D129" s="91"/>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:4">
       <c r="A130" s="4"/>
-      <c r="B130" s="101"/>
-      <c r="C130" s="102"/>
-      <c r="D130" s="103"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="91"/>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:4">
       <c r="A131" s="4"/>
-      <c r="B131" s="101"/>
-      <c r="C131" s="102"/>
-      <c r="D131" s="103"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="91"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:4">
       <c r="A132" s="4"/>
-      <c r="B132" s="101"/>
-      <c r="C132" s="102"/>
-      <c r="D132" s="103"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="91"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:4">
       <c r="A133" s="4"/>
-      <c r="B133" s="101"/>
-      <c r="C133" s="102"/>
-      <c r="D133" s="103"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="90"/>
+      <c r="D133" s="91"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:4">
       <c r="A134" s="4"/>
-      <c r="B134" s="101"/>
-      <c r="C134" s="102"/>
-      <c r="D134" s="103"/>
+      <c r="B134" s="89"/>
+      <c r="C134" s="90"/>
+      <c r="D134" s="91"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:4">
       <c r="A135" s="4"/>
-      <c r="B135" s="101"/>
-      <c r="C135" s="102"/>
-      <c r="D135" s="103"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="91"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:4">
       <c r="A136" s="4"/>
-      <c r="B136" s="101"/>
-      <c r="C136" s="102"/>
-      <c r="D136" s="103"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="91"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:4">
       <c r="A137" s="4"/>
-      <c r="B137" s="101"/>
-      <c r="C137" s="102"/>
-      <c r="D137" s="103"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="90"/>
+      <c r="D137" s="91"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:4">
       <c r="A138" s="4"/>
-      <c r="B138" s="101"/>
-      <c r="C138" s="102"/>
-      <c r="D138" s="103"/>
+      <c r="B138" s="89"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="91"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:4">
       <c r="A139" s="4"/>
-      <c r="B139" s="101"/>
-      <c r="C139" s="102"/>
-      <c r="D139" s="103"/>
+      <c r="B139" s="89"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="91"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:4">
       <c r="A140" s="4"/>
-      <c r="B140" s="101"/>
-      <c r="C140" s="102"/>
-      <c r="D140" s="103"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="91"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:4">
       <c r="A141" s="4"/>
-      <c r="B141" s="101"/>
-      <c r="C141" s="102"/>
-      <c r="D141" s="103"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="90"/>
+      <c r="D141" s="91"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:4">
       <c r="A142" s="4"/>
-      <c r="B142" s="101"/>
-      <c r="C142" s="102"/>
-      <c r="D142" s="103"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="90"/>
+      <c r="D142" s="91"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:4">
       <c r="A143" s="4"/>
-      <c r="B143" s="101"/>
-      <c r="C143" s="102"/>
-      <c r="D143" s="103"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="91"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:4">
       <c r="A144" s="4"/>
-      <c r="B144" s="101"/>
-      <c r="C144" s="102"/>
-      <c r="D144" s="103"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="91"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:4">
       <c r="A145" s="4"/>
-      <c r="B145" s="101"/>
-      <c r="C145" s="102"/>
-      <c r="D145" s="103"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="90"/>
+      <c r="D145" s="91"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:4">
       <c r="A146" s="4"/>
-      <c r="B146" s="101"/>
-      <c r="C146" s="102"/>
-      <c r="D146" s="103"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="90"/>
+      <c r="D146" s="91"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:4">
       <c r="A147" s="4"/>
-      <c r="B147" s="101"/>
-      <c r="C147" s="102"/>
-      <c r="D147" s="103"/>
+      <c r="B147" s="89"/>
+      <c r="C147" s="90"/>
+      <c r="D147" s="91"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:4">
       <c r="A148" s="4"/>
-      <c r="B148" s="101"/>
-      <c r="C148" s="102"/>
-      <c r="D148" s="103"/>
+      <c r="B148" s="89"/>
+      <c r="C148" s="90"/>
+      <c r="D148" s="91"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:4">
       <c r="A149" s="4"/>
-      <c r="B149" s="101"/>
-      <c r="C149" s="102"/>
-      <c r="D149" s="103"/>
+      <c r="B149" s="89"/>
+      <c r="C149" s="90"/>
+      <c r="D149" s="91"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:4">
       <c r="A150" s="4"/>
-      <c r="B150" s="101"/>
-      <c r="C150" s="102"/>
-      <c r="D150" s="103"/>
+      <c r="B150" s="89"/>
+      <c r="C150" s="90"/>
+      <c r="D150" s="91"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:4">
       <c r="A151" s="4"/>
-      <c r="B151" s="101"/>
-      <c r="C151" s="102"/>
-      <c r="D151" s="103"/>
+      <c r="B151" s="89"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="91"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:4">
       <c r="A152" s="4"/>
-      <c r="B152" s="101"/>
-      <c r="C152" s="102"/>
-      <c r="D152" s="103"/>
+      <c r="B152" s="89"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="91"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:4">
       <c r="A153" s="4"/>
-      <c r="B153" s="101"/>
-      <c r="C153" s="102"/>
-      <c r="D153" s="103"/>
+      <c r="B153" s="89"/>
+      <c r="C153" s="90"/>
+      <c r="D153" s="91"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:4">
       <c r="A154" s="4"/>
-      <c r="B154" s="101"/>
-      <c r="C154" s="102"/>
-      <c r="D154" s="103"/>
+      <c r="B154" s="89"/>
+      <c r="C154" s="90"/>
+      <c r="D154" s="91"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:4">
       <c r="A155" s="4"/>
-      <c r="B155" s="101"/>
-      <c r="C155" s="102"/>
-      <c r="D155" s="103"/>
+      <c r="B155" s="89"/>
+      <c r="C155" s="90"/>
+      <c r="D155" s="91"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:4">
       <c r="A156" s="4"/>
-      <c r="B156" s="101"/>
-      <c r="C156" s="102"/>
-      <c r="D156" s="103"/>
+      <c r="B156" s="89"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="91"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:4">
       <c r="A157" s="4"/>
-      <c r="B157" s="101"/>
-      <c r="C157" s="102"/>
-      <c r="D157" s="103"/>
+      <c r="B157" s="89"/>
+      <c r="C157" s="90"/>
+      <c r="D157" s="91"/>
     </row>
     <row r="158" spans="2:4">
-      <c r="B158" s="104"/>
-      <c r="C158" s="105"/>
-      <c r="D158" s="106"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="93"/>
+      <c r="D158" s="94"/>
     </row>
     <row r="159" spans="2:4">
-      <c r="B159" s="104"/>
-      <c r="C159" s="105"/>
-      <c r="D159" s="106"/>
+      <c r="B159" s="92"/>
+      <c r="C159" s="93"/>
+      <c r="D159" s="94"/>
     </row>
     <row r="160" spans="2:4">
-      <c r="B160" s="104"/>
-      <c r="C160" s="105"/>
-      <c r="D160" s="106"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="93"/>
+      <c r="D160" s="94"/>
     </row>
     <row r="161" spans="2:4">
-      <c r="B161" s="104"/>
-      <c r="C161" s="105"/>
-      <c r="D161" s="106"/>
+      <c r="B161" s="92"/>
+      <c r="C161" s="93"/>
+      <c r="D161" s="94"/>
     </row>
     <row r="162" spans="2:4">
-      <c r="B162" s="104"/>
-      <c r="C162" s="105"/>
-      <c r="D162" s="106"/>
+      <c r="B162" s="92"/>
+      <c r="C162" s="93"/>
+      <c r="D162" s="94"/>
     </row>
     <row r="163" spans="2:4">
-      <c r="B163" s="104"/>
-      <c r="C163" s="105"/>
-      <c r="D163" s="106"/>
+      <c r="B163" s="92"/>
+      <c r="C163" s="93"/>
+      <c r="D163" s="94"/>
     </row>
     <row r="164" spans="2:4">
-      <c r="B164" s="104"/>
-      <c r="C164" s="105"/>
-      <c r="D164" s="106"/>
+      <c r="B164" s="92"/>
+      <c r="C164" s="93"/>
+      <c r="D164" s="94"/>
     </row>
     <row r="165" spans="2:4">
-      <c r="B165" s="104"/>
-      <c r="C165" s="105"/>
-      <c r="D165" s="106"/>
+      <c r="B165" s="92"/>
+      <c r="C165" s="93"/>
+      <c r="D165" s="94"/>
     </row>
     <row r="166" spans="2:4">
-      <c r="B166" s="104"/>
-      <c r="C166" s="105"/>
-      <c r="D166" s="106"/>
+      <c r="B166" s="92"/>
+      <c r="C166" s="93"/>
+      <c r="D166" s="94"/>
     </row>
     <row r="167" spans="2:4">
-      <c r="B167" s="104"/>
-      <c r="C167" s="105"/>
-      <c r="D167" s="106"/>
+      <c r="B167" s="92"/>
+      <c r="C167" s="93"/>
+      <c r="D167" s="94"/>
     </row>
     <row r="168" spans="2:4">
-      <c r="B168" s="104"/>
-      <c r="C168" s="105"/>
-      <c r="D168" s="106"/>
+      <c r="B168" s="92"/>
+      <c r="C168" s="93"/>
+      <c r="D168" s="94"/>
     </row>
     <row r="169" spans="2:4">
-      <c r="B169" s="104"/>
-      <c r="C169" s="105"/>
-      <c r="D169" s="106"/>
+      <c r="B169" s="92"/>
+      <c r="C169" s="93"/>
+      <c r="D169" s="94"/>
     </row>
     <row r="170" spans="2:4">
-      <c r="B170" s="104"/>
-      <c r="C170" s="105"/>
-      <c r="D170" s="106"/>
+      <c r="B170" s="92"/>
+      <c r="C170" s="93"/>
+      <c r="D170" s="94"/>
     </row>
     <row r="171" spans="2:4">
-      <c r="B171" s="104"/>
-      <c r="C171" s="105"/>
-      <c r="D171" s="106"/>
+      <c r="B171" s="92"/>
+      <c r="C171" s="93"/>
+      <c r="D171" s="94"/>
     </row>
     <row r="172" spans="2:4">
-      <c r="B172" s="104"/>
-      <c r="C172" s="105"/>
-      <c r="D172" s="106"/>
+      <c r="B172" s="92"/>
+      <c r="C172" s="93"/>
+      <c r="D172" s="94"/>
     </row>
     <row r="173" spans="2:4">
-      <c r="B173" s="104"/>
-      <c r="C173" s="105"/>
-      <c r="D173" s="106"/>
+      <c r="B173" s="92"/>
+      <c r="C173" s="93"/>
+      <c r="D173" s="94"/>
     </row>
     <row r="174" spans="2:4">
-      <c r="B174" s="104"/>
-      <c r="C174" s="105"/>
-      <c r="D174" s="106"/>
+      <c r="B174" s="92"/>
+      <c r="C174" s="93"/>
+      <c r="D174" s="94"/>
     </row>
     <row r="175" spans="2:4">
-      <c r="B175" s="104"/>
-      <c r="C175" s="105"/>
-      <c r="D175" s="106"/>
+      <c r="B175" s="92"/>
+      <c r="C175" s="93"/>
+      <c r="D175" s="94"/>
     </row>
     <row r="176" spans="2:4">
-      <c r="B176" s="104"/>
-      <c r="C176" s="105"/>
-      <c r="D176" s="106"/>
+      <c r="B176" s="92"/>
+      <c r="C176" s="93"/>
+      <c r="D176" s="94"/>
     </row>
     <row r="177" spans="2:4">
-      <c r="B177" s="104"/>
-      <c r="C177" s="105"/>
-      <c r="D177" s="106"/>
+      <c r="B177" s="92"/>
+      <c r="C177" s="93"/>
+      <c r="D177" s="94"/>
     </row>
     <row r="178" spans="2:4">
-      <c r="B178" s="104"/>
-      <c r="C178" s="105"/>
-      <c r="D178" s="106"/>
+      <c r="B178" s="92"/>
+      <c r="C178" s="93"/>
+      <c r="D178" s="94"/>
     </row>
     <row r="179" spans="2:4">
-      <c r="B179" s="104"/>
-      <c r="C179" s="105"/>
-      <c r="D179" s="106"/>
+      <c r="B179" s="92"/>
+      <c r="C179" s="93"/>
+      <c r="D179" s="94"/>
     </row>
     <row r="180" spans="2:4">
-      <c r="B180" s="104"/>
-      <c r="C180" s="105"/>
-      <c r="D180" s="106"/>
+      <c r="B180" s="92"/>
+      <c r="C180" s="93"/>
+      <c r="D180" s="94"/>
     </row>
     <row r="181" spans="2:4">
-      <c r="B181" s="104"/>
-      <c r="C181" s="105"/>
-      <c r="D181" s="106"/>
+      <c r="B181" s="92"/>
+      <c r="C181" s="93"/>
+      <c r="D181" s="94"/>
     </row>
     <row r="182" spans="2:4">
-      <c r="B182" s="104"/>
-      <c r="C182" s="105"/>
-      <c r="D182" s="106"/>
+      <c r="B182" s="92"/>
+      <c r="C182" s="93"/>
+      <c r="D182" s="94"/>
     </row>
     <row r="183" spans="2:4">
-      <c r="B183" s="104"/>
-      <c r="C183" s="105"/>
-      <c r="D183" s="106"/>
+      <c r="B183" s="92"/>
+      <c r="C183" s="93"/>
+      <c r="D183" s="94"/>
     </row>
     <row r="184" spans="2:4">
-      <c r="B184" s="104"/>
-      <c r="C184" s="105"/>
-      <c r="D184" s="106"/>
+      <c r="B184" s="92"/>
+      <c r="C184" s="93"/>
+      <c r="D184" s="94"/>
     </row>
     <row r="185" spans="2:4">
-      <c r="B185" s="104"/>
-      <c r="C185" s="105"/>
-      <c r="D185" s="106"/>
+      <c r="B185" s="92"/>
+      <c r="C185" s="93"/>
+      <c r="D185" s="94"/>
     </row>
     <row r="186" spans="2:4">
-      <c r="B186" s="104"/>
-      <c r="C186" s="105"/>
-      <c r="D186" s="106"/>
+      <c r="B186" s="92"/>
+      <c r="C186" s="93"/>
+      <c r="D186" s="94"/>
     </row>
     <row r="187" spans="2:4">
-      <c r="B187" s="104"/>
-      <c r="C187" s="105"/>
-      <c r="D187" s="106"/>
+      <c r="B187" s="92"/>
+      <c r="C187" s="93"/>
+      <c r="D187" s="94"/>
     </row>
     <row r="188" spans="2:4">
-      <c r="B188" s="104"/>
-      <c r="C188" s="105"/>
-      <c r="D188" s="106"/>
+      <c r="B188" s="92"/>
+      <c r="C188" s="93"/>
+      <c r="D188" s="94"/>
     </row>
     <row r="189" spans="2:4">
-      <c r="B189" s="104"/>
-      <c r="C189" s="105"/>
-      <c r="D189" s="106"/>
+      <c r="B189" s="92"/>
+      <c r="C189" s="93"/>
+      <c r="D189" s="94"/>
     </row>
     <row r="190" spans="2:4">
-      <c r="B190" s="104"/>
-      <c r="C190" s="105"/>
-      <c r="D190" s="106"/>
+      <c r="B190" s="92"/>
+      <c r="C190" s="93"/>
+      <c r="D190" s="94"/>
     </row>
     <row r="191" spans="2:4">
-      <c r="B191" s="104"/>
-      <c r="C191" s="105"/>
-      <c r="D191" s="106"/>
+      <c r="B191" s="92"/>
+      <c r="C191" s="93"/>
+      <c r="D191" s="94"/>
     </row>
     <row r="192" spans="2:4">
-      <c r="B192" s="104"/>
-      <c r="C192" s="105"/>
-      <c r="D192" s="106"/>
+      <c r="B192" s="92"/>
+      <c r="C192" s="93"/>
+      <c r="D192" s="94"/>
     </row>
     <row r="193" spans="2:4">
-      <c r="B193" s="104"/>
-      <c r="C193" s="105"/>
-      <c r="D193" s="106"/>
+      <c r="B193" s="92"/>
+      <c r="C193" s="93"/>
+      <c r="D193" s="94"/>
     </row>
     <row r="194" spans="2:4">
-      <c r="B194" s="104"/>
-      <c r="C194" s="105"/>
-      <c r="D194" s="106"/>
+      <c r="B194" s="92"/>
+      <c r="C194" s="93"/>
+      <c r="D194" s="94"/>
     </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="104"/>
-      <c r="C195" s="105"/>
-      <c r="D195" s="106"/>
+      <c r="B195" s="92"/>
+      <c r="C195" s="93"/>
+      <c r="D195" s="94"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="B196" s="104"/>
-      <c r="C196" s="105"/>
-      <c r="D196" s="106"/>
+      <c r="B196" s="92"/>
+      <c r="C196" s="93"/>
+      <c r="D196" s="94"/>
     </row>
     <row r="197" spans="2:4">
-      <c r="B197" s="104"/>
-      <c r="C197" s="105"/>
-      <c r="D197" s="106"/>
+      <c r="B197" s="92"/>
+      <c r="C197" s="93"/>
+      <c r="D197" s="94"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="104"/>
-      <c r="C198" s="105"/>
-      <c r="D198" s="106"/>
+      <c r="B198" s="92"/>
+      <c r="C198" s="93"/>
+      <c r="D198" s="94"/>
     </row>
     <row r="199" spans="2:4">
-      <c r="B199" s="104"/>
-      <c r="C199" s="105"/>
-      <c r="D199" s="106"/>
+      <c r="B199" s="92"/>
+      <c r="C199" s="93"/>
+      <c r="D199" s="94"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" s="104"/>
-      <c r="C200" s="105"/>
-      <c r="D200" s="106"/>
+      <c r="B200" s="92"/>
+      <c r="C200" s="93"/>
+      <c r="D200" s="94"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="104"/>
-      <c r="C201" s="105"/>
-      <c r="D201" s="106"/>
+      <c r="B201" s="92"/>
+      <c r="C201" s="93"/>
+      <c r="D201" s="94"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" s="104"/>
-      <c r="C202" s="105"/>
-      <c r="D202" s="106"/>
+      <c r="B202" s="92"/>
+      <c r="C202" s="93"/>
+      <c r="D202" s="94"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" s="104"/>
-      <c r="C203" s="105"/>
-      <c r="D203" s="106"/>
+      <c r="B203" s="92"/>
+      <c r="C203" s="93"/>
+      <c r="D203" s="94"/>
     </row>
     <row r="204" spans="2:4">
-      <c r="B204" s="104"/>
-      <c r="C204" s="105"/>
-      <c r="D204" s="106"/>
+      <c r="B204" s="92"/>
+      <c r="C204" s="93"/>
+      <c r="D204" s="94"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" s="104"/>
-      <c r="C205" s="105"/>
-      <c r="D205" s="106"/>
+      <c r="B205" s="92"/>
+      <c r="C205" s="93"/>
+      <c r="D205" s="94"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" s="104"/>
-      <c r="C206" s="105"/>
-      <c r="D206" s="106"/>
+      <c r="B206" s="92"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="94"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" s="104"/>
-      <c r="C207" s="105"/>
-      <c r="D207" s="106"/>
+      <c r="B207" s="92"/>
+      <c r="C207" s="93"/>
+      <c r="D207" s="94"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="104"/>
-      <c r="C208" s="105"/>
-      <c r="D208" s="106"/>
+      <c r="B208" s="92"/>
+      <c r="C208" s="93"/>
+      <c r="D208" s="94"/>
     </row>
     <row r="209" spans="2:4">
-      <c r="B209" s="104"/>
-      <c r="C209" s="105"/>
-      <c r="D209" s="106"/>
+      <c r="B209" s="92"/>
+      <c r="C209" s="93"/>
+      <c r="D209" s="94"/>
     </row>
     <row r="210" spans="2:4">
-      <c r="B210" s="104"/>
-      <c r="C210" s="105"/>
-      <c r="D210" s="106"/>
+      <c r="B210" s="92"/>
+      <c r="C210" s="93"/>
+      <c r="D210" s="94"/>
     </row>
     <row r="211" spans="2:4">
-      <c r="B211" s="104"/>
-      <c r="C211" s="105"/>
-      <c r="D211" s="106"/>
+      <c r="B211" s="92"/>
+      <c r="C211" s="93"/>
+      <c r="D211" s="94"/>
     </row>
     <row r="212" spans="2:4">
-      <c r="B212" s="104"/>
-      <c r="C212" s="105"/>
-      <c r="D212" s="106"/>
+      <c r="B212" s="92"/>
+      <c r="C212" s="93"/>
+      <c r="D212" s="94"/>
     </row>
     <row r="213" spans="2:4">
-      <c r="B213" s="104"/>
-      <c r="C213" s="105"/>
-      <c r="D213" s="106"/>
+      <c r="B213" s="92"/>
+      <c r="C213" s="93"/>
+      <c r="D213" s="94"/>
     </row>
     <row r="214" spans="2:4">
-      <c r="B214" s="104"/>
-      <c r="C214" s="105"/>
-      <c r="D214" s="106"/>
+      <c r="B214" s="92"/>
+      <c r="C214" s="93"/>
+      <c r="D214" s="94"/>
     </row>
     <row r="215" spans="2:4">
-      <c r="B215" s="104"/>
-      <c r="C215" s="105"/>
-      <c r="D215" s="106"/>
+      <c r="B215" s="92"/>
+      <c r="C215" s="93"/>
+      <c r="D215" s="94"/>
     </row>
     <row r="216" spans="2:4">
-      <c r="B216" s="104"/>
-      <c r="C216" s="105"/>
-      <c r="D216" s="106"/>
+      <c r="B216" s="92"/>
+      <c r="C216" s="93"/>
+      <c r="D216" s="94"/>
     </row>
     <row r="217" spans="2:4">
-      <c r="B217" s="104"/>
-      <c r="C217" s="105"/>
-      <c r="D217" s="106"/>
+      <c r="B217" s="92"/>
+      <c r="C217" s="93"/>
+      <c r="D217" s="94"/>
     </row>
     <row r="218" spans="2:4">
-      <c r="B218" s="104"/>
-      <c r="C218" s="105"/>
-      <c r="D218" s="106"/>
+      <c r="B218" s="92"/>
+      <c r="C218" s="93"/>
+      <c r="D218" s="94"/>
     </row>
     <row r="219" spans="2:4">
-      <c r="B219" s="104"/>
-      <c r="C219" s="105"/>
-      <c r="D219" s="106"/>
+      <c r="B219" s="92"/>
+      <c r="C219" s="93"/>
+      <c r="D219" s="94"/>
     </row>
     <row r="220" spans="2:4">
-      <c r="B220" s="104"/>
-      <c r="C220" s="105"/>
-      <c r="D220" s="106"/>
+      <c r="B220" s="92"/>
+      <c r="C220" s="93"/>
+      <c r="D220" s="94"/>
     </row>
     <row r="221" spans="2:4">
-      <c r="B221" s="104"/>
-      <c r="C221" s="105"/>
-      <c r="D221" s="106"/>
+      <c r="B221" s="92"/>
+      <c r="C221" s="93"/>
+      <c r="D221" s="94"/>
     </row>
     <row r="222" spans="2:4">
-      <c r="B222" s="104"/>
-      <c r="C222" s="105"/>
-      <c r="D222" s="106"/>
+      <c r="B222" s="92"/>
+      <c r="C222" s="93"/>
+      <c r="D222" s="94"/>
     </row>
     <row r="223" spans="2:4">
-      <c r="B223" s="104"/>
-      <c r="C223" s="105"/>
-      <c r="D223" s="106"/>
+      <c r="B223" s="92"/>
+      <c r="C223" s="93"/>
+      <c r="D223" s="94"/>
     </row>
     <row r="224" spans="2:4">
-      <c r="B224" s="104"/>
-      <c r="C224" s="105"/>
-      <c r="D224" s="106"/>
+      <c r="B224" s="92"/>
+      <c r="C224" s="93"/>
+      <c r="D224" s="94"/>
     </row>
     <row r="225" spans="2:4">
-      <c r="B225" s="104"/>
-      <c r="C225" s="105"/>
-      <c r="D225" s="106"/>
+      <c r="B225" s="92"/>
+      <c r="C225" s="93"/>
+      <c r="D225" s="94"/>
     </row>
     <row r="226" spans="2:4">
-      <c r="B226" s="104"/>
-      <c r="C226" s="105"/>
-      <c r="D226" s="106"/>
+      <c r="B226" s="92"/>
+      <c r="C226" s="93"/>
+      <c r="D226" s="94"/>
     </row>
     <row r="227" spans="2:4">
-      <c r="B227" s="104"/>
-      <c r="C227" s="105"/>
-      <c r="D227" s="106"/>
+      <c r="B227" s="92"/>
+      <c r="C227" s="93"/>
+      <c r="D227" s="94"/>
     </row>
     <row r="228" spans="2:4">
-      <c r="B228" s="104"/>
-      <c r="C228" s="105"/>
-      <c r="D228" s="106"/>
+      <c r="B228" s="92"/>
+      <c r="C228" s="93"/>
+      <c r="D228" s="94"/>
     </row>
     <row r="229" spans="2:4">
-      <c r="B229" s="104"/>
-      <c r="C229" s="105"/>
-      <c r="D229" s="106"/>
+      <c r="B229" s="92"/>
+      <c r="C229" s="93"/>
+      <c r="D229" s="94"/>
     </row>
     <row r="230" spans="2:4">
-      <c r="B230" s="104"/>
-      <c r="C230" s="105"/>
-      <c r="D230" s="106"/>
+      <c r="B230" s="92"/>
+      <c r="C230" s="93"/>
+      <c r="D230" s="94"/>
     </row>
     <row r="231" spans="2:4">
-      <c r="B231" s="104"/>
-      <c r="C231" s="105"/>
-      <c r="D231" s="106"/>
+      <c r="B231" s="92"/>
+      <c r="C231" s="93"/>
+      <c r="D231" s="94"/>
     </row>
     <row r="232" spans="2:4">
-      <c r="B232" s="104"/>
-      <c r="C232" s="105"/>
-      <c r="D232" s="106"/>
+      <c r="B232" s="92"/>
+      <c r="C232" s="93"/>
+      <c r="D232" s="94"/>
     </row>
     <row r="233" spans="2:4">
-      <c r="B233" s="104"/>
-      <c r="C233" s="105"/>
-      <c r="D233" s="106"/>
+      <c r="B233" s="92"/>
+      <c r="C233" s="93"/>
+      <c r="D233" s="94"/>
     </row>
     <row r="234" spans="2:4">
-      <c r="B234" s="104"/>
-      <c r="C234" s="105"/>
-      <c r="D234" s="106"/>
+      <c r="B234" s="92"/>
+      <c r="C234" s="93"/>
+      <c r="D234" s="94"/>
     </row>
     <row r="235" spans="2:4">
-      <c r="B235" s="104"/>
-      <c r="C235" s="105"/>
-      <c r="D235" s="106"/>
+      <c r="B235" s="92"/>
+      <c r="C235" s="93"/>
+      <c r="D235" s="94"/>
     </row>
     <row r="236" spans="2:4">
-      <c r="B236" s="104"/>
-      <c r="C236" s="105"/>
-      <c r="D236" s="106"/>
+      <c r="B236" s="92"/>
+      <c r="C236" s="93"/>
+      <c r="D236" s="94"/>
     </row>
     <row r="237" spans="2:4">
-      <c r="B237" s="104"/>
-      <c r="C237" s="105"/>
-      <c r="D237" s="106"/>
+      <c r="B237" s="92"/>
+      <c r="C237" s="93"/>
+      <c r="D237" s="94"/>
     </row>
     <row r="238" spans="2:4">
-      <c r="B238" s="104"/>
-      <c r="C238" s="105"/>
-      <c r="D238" s="106"/>
+      <c r="B238" s="92"/>
+      <c r="C238" s="93"/>
+      <c r="D238" s="94"/>
     </row>
     <row r="239" spans="2:4">
-      <c r="B239" s="104"/>
-      <c r="C239" s="105"/>
-      <c r="D239" s="106"/>
+      <c r="B239" s="92"/>
+      <c r="C239" s="93"/>
+      <c r="D239" s="94"/>
     </row>
     <row r="240" spans="2:4">
-      <c r="B240" s="104"/>
-      <c r="C240" s="105"/>
-      <c r="D240" s="106"/>
+      <c r="B240" s="92"/>
+      <c r="C240" s="93"/>
+      <c r="D240" s="94"/>
     </row>
     <row r="241" spans="2:4">
-      <c r="B241" s="104"/>
-      <c r="C241" s="105"/>
-      <c r="D241" s="106"/>
+      <c r="B241" s="92"/>
+      <c r="C241" s="93"/>
+      <c r="D241" s="94"/>
     </row>
     <row r="242" spans="2:4">
-      <c r="B242" s="104"/>
-      <c r="C242" s="105"/>
-      <c r="D242" s="106"/>
+      <c r="B242" s="92"/>
+      <c r="C242" s="93"/>
+      <c r="D242" s="94"/>
     </row>
     <row r="243" spans="2:4">
-      <c r="B243" s="104"/>
-      <c r="C243" s="105"/>
-      <c r="D243" s="106"/>
+      <c r="B243" s="92"/>
+      <c r="C243" s="93"/>
+      <c r="D243" s="94"/>
     </row>
     <row r="244" spans="2:4">
-      <c r="B244" s="104"/>
-      <c r="C244" s="105"/>
-      <c r="D244" s="106"/>
+      <c r="B244" s="92"/>
+      <c r="C244" s="93"/>
+      <c r="D244" s="94"/>
     </row>
     <row r="245" spans="2:4">
-      <c r="B245" s="104"/>
-      <c r="C245" s="105"/>
-      <c r="D245" s="106"/>
+      <c r="B245" s="92"/>
+      <c r="C245" s="93"/>
+      <c r="D245" s="94"/>
     </row>
     <row r="246" spans="2:4">
-      <c r="B246" s="104"/>
-      <c r="C246" s="105"/>
-      <c r="D246" s="106"/>
+      <c r="B246" s="92"/>
+      <c r="C246" s="93"/>
+      <c r="D246" s="94"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A95:B95"/>
     <mergeCell ref="A76:A83"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A88:A90"/>
